--- a/document/data source_課程資料/普高/skills_info/skills_info_數學甲(下).xlsx
+++ b/document/data source_課程資料/普高/skills_info/skills_info_數學甲(下).xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\document\data source_課程資料\普高\skills_info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="11083"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="規則一樣 接著是數學數學甲(下) skill_curricul" sheetId="1" r:id="rId4"/>
+    <sheet name="規則一樣 接著是數學數學甲(下) skill_curricul" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -61,9 +69,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生檢查 X 的所有可能取值，並確認 P(X=xᵢ) 的總和是否為 1。</t>
-  </si>
-  <si>
     <t>rv_expected_value</t>
   </si>
   <si>
@@ -76,9 +81,6 @@
     <t>熟練計算隨機變數 X 的期望值 E(X) = Σ xᵢpᵢ。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 E(X) = μ = Σ xᵢ P(X=xᵢ)，檢查「報酬 xᵢ」與「機率 pᵢ」是否正確乘積並加總。</t>
-  </si>
-  <si>
     <t>rv_variance_stddev</t>
   </si>
   <si>
@@ -91,9 +93,6 @@
     <t>熟練計算隨機變數 X 的變異數 Var(X) = E[(X-μ)²] = E(X²) - [E(X)]² 與標準差 σ。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，教導學生使用 Var(X) = (Σ xᵢ²pᵢ) - μ²，並確認標準差 σ = √Var(X)。</t>
-  </si>
-  <si>
     <t>rv_linear_transform_ev</t>
   </si>
   <si>
@@ -106,9 +105,6 @@
     <t>熟練應用 E(aX+b) = aE(X) + b。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 E(aX+b) = aE(X) + b，伸縮與平移皆會改變期望值。</t>
-  </si>
-  <si>
     <t>rv_linear_transform_var</t>
   </si>
   <si>
@@ -121,9 +117,6 @@
     <t>熟練應用 Var(aX+b) = a²Var(X) 與 σ(aX+b) = |a|σ(X)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 Var(aX+b) = a²Var(X)，變異數僅受「伸縮」影響（a倍），不受「平移」(+b) 影響。</t>
-  </si>
-  <si>
     <t>rv_bernoulli_trial</t>
   </si>
   <si>
@@ -136,9 +129,6 @@
     <t>熟練判斷伯努力試驗（重複、獨立、兩種結果）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「伯努力試驗」必須是「重複且獨立」的試驗，且每次只有「成功」或「失敗」兩種結果。</t>
-  </si>
-  <si>
     <t>rv_binomial_distribution</t>
   </si>
   <si>
@@ -151,9 +141,6 @@
     <t>熟練計算二項分布 B(n, p) 的機率 P(X=k) = C(n, k) pᵏ (1-p)ⁿ⁻ᵏ。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生檢查 P(X=k) = C(n, k) pᵏ (1-p)ⁿ⁻ᵏ，確認試驗次數 n、成功機率 p 與所求次數 k。</t>
-  </si>
-  <si>
     <t>rv_binomial_ev_var</t>
   </si>
   <si>
@@ -166,9 +153,6 @@
     <t>熟練計算二項分布 B(n, p) 的期望值 E(X) = np 與變異數 Var(X) = np(1-p)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 E(X) = np 且 Var(X) = np(1-p)，並檢查 n 和 p。</t>
-  </si>
-  <si>
     <t>rv_geometric_distribution</t>
   </si>
   <si>
@@ -181,9 +165,6 @@
     <t>熟練計算幾何分布的機率 P(X=k) = (1-p)ᵏ⁻¹ p。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 P(X=k) 代表「前 k-1 次失敗，第 k 次成功」，機率為 (1-p)ᵏ⁻¹ p。</t>
-  </si>
-  <si>
     <t>rv_geometric_ev</t>
   </si>
   <si>
@@ -196,9 +177,6 @@
     <t>熟練計算幾何分布（首次成功）的期望值 E(X) = 1/p。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生若成功機率為 p，期望在 E(X) = 1/p 次試驗後成功。</t>
-  </si>
-  <si>
     <t>complex_definition_ops</t>
   </si>
   <si>
@@ -214,9 +192,6 @@
     <t>熟練複數 a+bi 的定義 (i² = -1) 與加、減、乘、除四則運算。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 i² = -1，並在除法時，分母需乘上其「共軛複數」。</t>
-  </si>
-  <si>
     <t>complex_conjugate_absolute</t>
   </si>
   <si>
@@ -229,9 +204,6 @@
     <t>熟練計算 z = a+bi 的共軛複數 (z bar) 與絕對值 |z| = √(a²+b²)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 z bar = a-bi，且 |z|² = z · (z bar) = a²+b²。</t>
-  </si>
-  <si>
     <t>quadratic_eq_complex_roots</t>
   </si>
   <si>
@@ -244,9 +216,6 @@
     <t>熟練求解實係數一元二次方程式的虛根 (D &lt; 0)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 D = b²-4ac &lt; 0 時，根為 (-b ± i√(-D)) / 2a。</t>
-  </si>
-  <si>
     <t>quadratic_eq_root_coeff</t>
   </si>
   <si>
@@ -259,9 +228,6 @@
     <t>熟練應用根與係數關係 (α+β = -b/a, αβ = c/a) 於虛根。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生根與係數關係在虛根時依然成立。</t>
-  </si>
-  <si>
     <t>poly_algebraic_fundamental_theorem</t>
   </si>
   <si>
@@ -274,9 +240,6 @@
     <t>理解 n 次多項式方程式在複數系中恰有 n 個根（含重根）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 n 次方程式必有 n 個複數根。</t>
-  </si>
-  <si>
     <t>poly_conjugate_root_theorem</t>
   </si>
   <si>
@@ -289,9 +252,6 @@
     <t>熟練應用「實係數」方程式的虛根成對 (若 a+bi 為根，則 a-bi 亦為根)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「虛根成對定理」必須在「實係數」多項式方程式的前提下才成立。</t>
-  </si>
-  <si>
     <t>complex_plane_geometry</t>
   </si>
   <si>
@@ -307,9 +267,6 @@
     <t>handwriting</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 z = x+yi 對應 P(x, y)，其中 x 軸為實軸，y 軸為虛軸。</t>
-  </si>
-  <si>
     <t>complex_polar_form_convert</t>
   </si>
   <si>
@@ -322,9 +279,6 @@
     <t>熟練將複數 z = x+yi 轉換為極式 z = r(cosθ + i sinθ)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 r = |z| = √(x²+y²)，且 cosθ = x/r, sinθ = y/r，注意 θ 所在的象限。</t>
-  </si>
-  <si>
     <t>complex_polar_form_multiply_divide</t>
   </si>
   <si>
@@ -337,9 +291,6 @@
     <t>熟練複數極式的乘除法（絕對值相乘除，輻角相加減）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 z₁z₂ = r₁r₂(cos(θ₁+θ₂) + i sin(θ₁+θ₂))；z₁/z₂ = (r₁/r₂)(cos(θ₁-θ₂) + i sin(θ₁-θ₂))。</t>
-  </si>
-  <si>
     <t>complex_de_moivres_theorem</t>
   </si>
   <si>
@@ -352,9 +303,6 @@
     <t>熟練應用棣美弗定理 r(cosθ+isinθ)ⁿ = rⁿ(cos(nθ) + i sin(nθ))。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 r(cosθ+isinθ)ⁿ = rⁿ(cos(nθ) + i sin(nθ))。</t>
-  </si>
-  <si>
     <t>complex_nth_roots</t>
   </si>
   <si>
@@ -367,9 +315,6 @@
     <t>熟練求解 zⁿ = w 的 n 個複數根。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，教導學生 n 個根的絕對值均為 r^(1/n)，輻角為 (θ+2kπ)/n, k=0,1,...,n-1。</t>
-  </si>
-  <si>
     <t>conic_parabola_definition</t>
   </si>
   <si>
@@ -385,9 +330,6 @@
     <t>熟練拋物線的幾何定義（P 到焦點 F 的距離 = P 到準線 L 的距離）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生拋物線的定義 PF = d(P, L)，並確認焦點 F 與準線 L。</t>
-  </si>
-  <si>
     <t>conic_parabola_standard_eq_vertex</t>
   </si>
   <si>
@@ -400,9 +342,6 @@
     <t>熟練 y²=4cx, x²=4cy 形式的拋物線標準式（判斷 c 值、焦點、準線）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 y²=4cx (左右型, F=(c,0), L: x=-c)；x²=4cy (上下型, F=(0,c), L: y=-c)。</t>
-  </si>
-  <si>
     <t>conic_parabola_translation</t>
   </si>
   <si>
@@ -415,9 +354,6 @@
     <t>熟練平移後的拋物線標準式 (y-k)² = 4c(x-h)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生先配方成 (y-k)² = 4c(x-h) 或 (x-h)² = 4c(y-k)，找出頂點 (h, k) 與焦距 c。</t>
-  </si>
-  <si>
     <t>conic_parabola_tangent</t>
   </si>
   <si>
@@ -430,9 +366,6 @@
     <t>熟練求解拋物線的切線方程式（公式法或判別式 D=0）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生過 y²=4cx 上一點 (x₀,y₀) 的切線為 y₀y = 2c(x+x₀)。</t>
-  </si>
-  <si>
     <t>conic_ellipse_definition</t>
   </si>
   <si>
@@ -445,9 +378,6 @@
     <t>熟練橢圓的幾何定義（P 到兩焦點 F₁, F₂ 的距離和 PF₁ + PF₂ = 2a）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生橢圓定義 PF₁ + PF₂ = 2a，且 2a &gt; 2c (兩焦點距離)。</t>
-  </si>
-  <si>
     <t>conic_ellipse_standard_eq_center</t>
   </si>
   <si>
@@ -460,9 +390,6 @@
     <t>熟練 (x²/a² + y²/b² = 1) 形式的橢圓標準式（判斷長短軸、焦點）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 a 是半長軸長 (a &gt; b)，若 a 在 x 下方為左右型；若 a 在 y 下方為上下型。</t>
-  </si>
-  <si>
     <t>conic_ellipse_abc_relation</t>
   </si>
   <si>
@@ -475,9 +402,6 @@
     <t>熟練橢圓的 a, b, c 關係：a² = b² + c² (a 為最長)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生橢圓中 a 是斜邊 (a² = b² + c²)，a (半長軸) &gt; c (半焦距)。</t>
-  </si>
-  <si>
     <t>conic_ellipse_translation</t>
   </si>
   <si>
@@ -490,9 +414,6 @@
     <t>熟練平移後的橢圓標準式 ((x-h)²/a² + (y-k)²/b² = 1)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生先配方找出中心 (h, k)，再判斷 a² 和 b² 決定長短軸與焦點。</t>
-  </si>
-  <si>
     <t>conic_ellipse_parametric</t>
   </si>
   <si>
@@ -505,9 +426,6 @@
     <t>熟練橢圓的參數式 {x = h + a cosθ, y = k + b sinθ}。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 x = h + a cosθ, y = k + b sinθ，注意 a (x半徑) 和 b (y半徑) 的對應。</t>
-  </si>
-  <si>
     <t>conic_hyperbola_definition</t>
   </si>
   <si>
@@ -520,9 +438,6 @@
     <t>熟練雙曲線的幾何定義（|PF₁ - PF₂| = 2a）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生雙曲線定義 |PF₁ - PF₂| = 2a，且 2a &lt; 2c (兩焦點距離)。</t>
-  </si>
-  <si>
     <t>conic_hyperbola_standard_eq_center</t>
   </si>
   <si>
@@ -535,9 +450,6 @@
     <t>熟練 (x²/a² - y²/b² = 1) 形式的雙曲線標準式（判斷貫軸、焦點）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 x²/a² - y²/b² = 1 (左右型, 貫軸在x軸)；y²/a² - x²/b² = 1 (上下型, 貫軸在y軸)。</t>
-  </si>
-  <si>
     <t>conic_hyperbola_abc_relation</t>
   </si>
   <si>
@@ -550,9 +462,6 @@
     <t>熟練雙曲線的 a, b, c 關係：c² = a² + b² (c 為最長)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生雙曲線中 c 是斜邊 (c² = a² + b²)，c (半焦距) &gt; a (半貫軸)。</t>
-  </si>
-  <si>
     <t>conic_hyperbola_asymptotes</t>
   </si>
   <si>
@@ -565,9 +474,6 @@
     <t>熟練求解雙曲線的漸近線（令標準式右側 = 0）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 x²/a² - y²/b² = 1 的漸近線為 x/a ± y/b = 0。</t>
-  </si>
-  <si>
     <t>conic_hyperbola_translation</t>
   </si>
   <si>
@@ -580,9 +486,6 @@
     <t>熟練平移後的雙曲線標準式 ((x-h)²/a² - (y-k)²/b² = 1)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生先配方找出中心 (h, k)，再判斷 a² 和 b² 決定貫軸、焦點與漸近線。</t>
-  </si>
-  <si>
     <t>conic_hyperbola_tangent</t>
   </si>
   <si>
@@ -595,23 +498,360 @@
     <t>熟練求解雙曲線的切線方程式（公式法或判別式 D=0）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生過 x²/a² - y²/b² = 1 上一點 (x₀,y₀) 的切線為 x₀x/a² - y₀y/b² = 1。</t>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生檢查 X 的所有可能取值，並確認 P(X=xᵢ) 的總和是否為 1。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 E(X) = μ = Σ xᵢ P(X=xᵢ)，檢查「報酬 xᵢ」與「機率 pᵢ」是否正確乘積並加總。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，教導學生使用 Var(X) = (Σ xᵢ²pᵢ) - μ²，並確認標準差 σ = √Var(X)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 E(aX+b) = aE(X) + b，伸縮與平移皆會改變期望值。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 Var(aX+b) = a²Var(X)，變異數僅受「伸縮」影響（a倍），不受「平移」(+b) 影響。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「伯努力試驗」必須是「重複且獨立」的試驗，且每次只有「成功」或「失敗」兩種結果。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生檢查 P(X=k) = C(n, k) pᵏ (1-p)ⁿ⁻ᵏ，確認試驗次數 n、成功機率 p 與所求次數 k。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 E(X) = np 且 Var(X) = np(1-p)，並檢查 n 和 p。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 P(X=k) 代表「前 k-1 次失敗，第 k 次成功」，機率為 (1-p)ᵏ⁻¹ p。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生若成功機率為 p，期望在 E(X) = 1/p 次試驗後成功。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 i² = -1，並在除法時，分母需乘上其「共軛複數」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 z bar = a-bi，且 |z|² = z · (z bar) = a²+b²。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 D = b²-4ac &lt; 0 時，根為 (-b ± i√(-D)) / 2a。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生根與係數關係在虛根時依然成立。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 n 次方程式必有 n 個複數根。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「虛根成對定理」必須在「實係數」多項式方程式的前提下才成立。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 z = x+yi 對應 P(x, y)，其中 x 軸為實軸，y 軸為虛軸。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 r = |z| = √(x²+y²)，且 cosθ = x/r, sinθ = y/r，注意 θ 所在的象限。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 z₁z₂ = r₁r₂(cos(θ₁+θ₂) + i sin(θ₁+θ₂))；z₁/z₂ = (r₁/r₂)(cos(θ₁-θ₂) + i sin(θ₁-θ₂))。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 r(cosθ+isinθ)ⁿ = rⁿ(cos(nθ) + i sin(nθ))。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，教導學生 n 個根的絕對值均為 r^(1/n)，輻角為 (θ+2kπ)/n, k=0,1,...,n-1。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生拋物線的定義 PF = d(P, L)，並確認焦點 F 與準線 L。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 y²=4cx (左右型, F=(c,0), L: x=-c)；x²=4cy (上下型, F=(0,c), L: y=-c)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生先配方成 (y-k)² = 4c(x-h) 或 (x-h)² = 4c(y-k)，找出頂點 (h, k) 與焦距 c。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生過 y²=4cx 上一點 (x₀,y₀) 的切線為 y₀y = 2c(x+x₀)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生橢圓定義 PF₁ + PF₂ = 2a，且 2a &gt; 2c (兩焦點距離)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 a 是半長軸長 (a &gt; b)，若 a 在 x 下方為左右型；若 a 在 y 下方為上下型。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生橢圓中 a 是斜邊 (a² = b² + c²)，a (半長軸) &gt; c (半焦距)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生先配方找出中心 (h, k)，再判斷 a² 和 b² 決定長短軸與焦點。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 x = h + a cosθ, y = k + b sinθ，注意 a (x半徑) 和 b (y半徑) 的對應。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生雙曲線定義 |PF₁ - PF₂| = 2a，且 2a &lt; 2c (兩焦點距離)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 x²/a² - y²/b² = 1 (左右型, 貫軸在x軸)；y²/a² - x²/b² = 1 (上下型, 貫軸在y軸)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生雙曲線中 c 是斜邊 (c² = a² + b²)，c (半焦距) &gt; a (半貫軸)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 x²/a² - y²/b² = 1 的漸近線為 x/a ± y/b = 0。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生先配方找出中心 (h, k)，再判斷 a² 和 b² 決定貫軸、焦點與漸近線。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生過 x²/a² - y²/b² = 1 上一點 (x₀,y₀) 的切線為 x₀x/a² - y₀y/b² = 1。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -620,36 +860,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -839,20 +1089,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:P1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,7 +1139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -904,1121 +1159,1156 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2970</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2970.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2980</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2980.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2990</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2990.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>3000.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="H6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>3010.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>3010</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="H7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>3020.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>3020</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="H8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>3030.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>3030</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="H9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>3040.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>3040</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="H10" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>3050.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>3050</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3060</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3070</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3080</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>3060.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3090</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>3070.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3100</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>3080.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3110</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3120</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>3090.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3130</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>3100.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3140</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>3110.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3150</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>3120.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3160</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3170</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>3130.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3180</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>3140.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3190</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>3150.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3200</v>
+      </c>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>3160.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>3210</v>
+      </c>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H22" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>3170.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3220</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3230</v>
+      </c>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>3180.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>3240</v>
+      </c>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H24" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>3190.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>3250</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H25" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>3200.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>3260</v>
+      </c>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>3270</v>
+      </c>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H26" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>3210.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>3280</v>
+      </c>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H27" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>3220.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>3290</v>
+      </c>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>3230.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" s="1">
+        <v>5</v>
+      </c>
+      <c r="I35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>3300</v>
+      </c>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H29" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>3240.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>3310</v>
+      </c>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H30" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>3250.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>3260.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H32" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1">
-        <v>3270.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H33" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>3280.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H34" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1">
-        <v>3290.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H35" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1">
-        <v>3300.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H36" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" s="1">
-        <v>3310.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>15</v>
@@ -2027,16 +2317,18 @@
         <v>194</v>
       </c>
       <c r="H37" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J37" s="1">
-        <v>3320.0</v>
-      </c>
+        <v>3320</v>
+      </c>
+      <c r="M37" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>